--- a/resource/eor/EORScoreInformation.xlsx
+++ b/resource/eor/EORScoreInformation.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27660" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="EOR Score Information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>EOR Score Information</t>
   </si>
@@ -131,9 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -166,56 +167,63 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -223,6 +231,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,13 +251,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" descr="" name="logo"/>
+        <xdr:cNvPr id="2" name="logo"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -269,293 +283,576 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.0560488019671" customWidth="1" style="1"/>
-    <col min="2" max="2" width="11.382687159947" customWidth="1" style="1"/>
-    <col min="3" max="3" width="22.1704450334821" customWidth="1" style="1"/>
-    <col min="4" max="4" width="15" customWidth="1" style="1"/>
-    <col min="5" max="5" width="25" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" style="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1" style="1"/>
-    <col min="11" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="1" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="1" customFormat="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" s="1" customFormat="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>5.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>5.5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>5.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>4.5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>5.5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>5.5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>5.5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>6</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>5.5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>5.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>6.5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>6.5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>6.5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4">
         <v>6.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="10">
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:C4"/>
@@ -567,7 +864,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:J5"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>